--- a/학습자료/단답형/국어_기출의지혜_3일차.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_3일차.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3073,1157 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>體系的</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>체계적</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>犬馬之誠</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>명지바람</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>살바람</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>間於齊楚</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>蓋世之才</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>曲折</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>初有</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>초유</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>敎養</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>理論</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>이론</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>儒敎</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>유교</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>學問</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>학문</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>수용</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
+2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>만수받이</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>윤똑똑이</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>트레바리</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>오그랑이</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>신문로(발음)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>신문노</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>남대문로(발음)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>남대문노</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>추진력(발음)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>추진녁</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>장맛비(발음)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>장마삐, 장맏삐</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>등불(발음)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>등뿔</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>콧날(발음)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>콘날</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>예삿일(발음)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>예산닐</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>집일(발음)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>짐닐</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>인사말(발음)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>인사말,</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>머리말(발음)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>머리말,</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>꼬리말(발음)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>꼬리말,</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>고무줄(발음)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>고무줄,</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>동아줄(발음)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>동아줄,</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>회-수(回收)(발음)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>회수, 훼수</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>콩-밥(발음)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>콩밥,</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>인사말/인삿말</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>머리말/머릿말</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>꼬리말/꼬릿말</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>예사말/예삿말</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>노래말/노랫말</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>혼자말/혼잣말</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>존대말/존댓말</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>혼사말/혼삿말</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>본디말/본딧말</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>빨랫줄(발음)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>빨래쭐, 빨랟쭐</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>횟수(回數)(발음)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>회쑤, 홷쑤</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>아침밥(발음)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>아침빱</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>피어(발음)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>피어, 피여</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>되어(발음)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>되어, 되여</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>이오(발음)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>이오, 이요</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>아니오(발음)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>아니오, 아니요</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_3일차.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_3일차.xlsx
@@ -524,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>눈물</t>
+          <t>눈물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>작은집</t>
+          <t>작은집(합성어/파생어)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>가로지르다</t>
+          <t>가로지르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>못나다</t>
+          <t>못나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>값나가다</t>
+          <t>값나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>낯설다</t>
+          <t>낯설다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>본받다</t>
+          <t>본받다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>이리저리</t>
+          <t>이리저리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>곧잘</t>
+          <t>곧잘(합성어/파생어)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -722,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>돌아가다</t>
+          <t>돌아가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>벗어나다</t>
+          <t>벗어나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>검버섯</t>
+          <t>검버섯(합성어/파생어)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -788,12 +788,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>오르내리다</t>
+          <t>오르내리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>먹거리</t>
+          <t>먹거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -832,12 +832,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>우짖다</t>
+          <t>우짖다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,12 +854,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>뛰놀다</t>
+          <t>뛰놀다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>볼록거울</t>
+          <t>볼록거울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>뾰족구두</t>
+          <t>뾰족구두(합성어/파생어)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -920,12 +920,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>산들바람</t>
+          <t>산들바람(합성어/파생어)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -942,12 +942,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>피땀</t>
+          <t>피땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>열쇠</t>
+          <t>열쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -986,12 +986,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>길짐승</t>
+          <t>길짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1008,12 +1008,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>날짐승</t>
+          <t>날짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1030,12 +1030,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>첫사랑</t>
+          <t>첫사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>눈발</t>
+          <t>눈발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1074,12 +1074,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>서릿발</t>
+          <t>서릿발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1096,12 +1096,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>생겨나다</t>
+          <t>생겨나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>먹을거리</t>
+          <t>먹을거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>우리나라</t>
+          <t>우리나라(합성어/파생어)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>우리말</t>
+          <t>우리말(합성어/파생어)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>우리글</t>
+          <t>우리글(합성어/파생어)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1206,12 +1206,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>날고기</t>
+          <t>날고기(합성어/파생어)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>강아지</t>
+          <t>강아지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>잡아먹히다</t>
+          <t>잡아먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>되돌리다</t>
+          <t>되돌리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1294,12 +1294,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>건강하다</t>
+          <t>건강하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1316,12 +1316,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>공부하다</t>
+          <t>공부하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>유지하다</t>
+          <t>유지하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>풋사랑</t>
+          <t>풋사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1382,12 +1382,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>단호박</t>
+          <t>단호박(합성어/파생어)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,12 +1404,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>단팥죽</t>
+          <t>단팥죽(합성어/파생어)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,12 +1426,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>바가지</t>
+          <t>바가지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>끗발</t>
+          <t>끗발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>화장발</t>
+          <t>화장발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>늦더위</t>
+          <t>늦더위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>늦가을</t>
+          <t>늦가을(합성어/파생어)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>값어치</t>
+          <t>값어치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,12 +1558,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>감발</t>
+          <t>감발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>꺾쇠</t>
+          <t>꺾쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1602,12 +1602,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>얽매다</t>
+          <t>얽매다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>검붉다</t>
+          <t>검붉다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>덮밥</t>
+          <t>덮밥(합성어/파생어)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1668,12 +1668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>부슬비</t>
+          <t>부슬비(합성어/파생어)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>높푸르다</t>
+          <t>높푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1712,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>스며들다</t>
+          <t>스며들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1734,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>새빨갛다</t>
+          <t>새빨갛다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1756,12 +1756,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>짙푸르다</t>
+          <t>짙푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>젊은이</t>
+          <t>젊은이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1800,12 +1800,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>가로막다</t>
+          <t>가로막다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>새해</t>
+          <t>새해(합성어/파생어)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>힘들다</t>
+          <t>힘들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1866,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>접칼</t>
+          <t>접칼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>돌아오다</t>
+          <t>돌아오다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>굳세다</t>
+          <t>굳세다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>밤낮</t>
+          <t>밤낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,12 +1954,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>굶주리다</t>
+          <t>굶주리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1976,12 +1976,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>빛나다</t>
+          <t>빛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>맛나다</t>
+          <t>맛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>별나다</t>
+          <t>별나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,12 +2042,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>보살피다</t>
+          <t>보살피다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,12 +2064,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>잠보</t>
+          <t>잠보(합성어/파생어)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>점쟁이</t>
+          <t>점쟁이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>일꾼</t>
+          <t>일꾼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2130,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>덮개</t>
+          <t>덮개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2152,12 +2152,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>넓이</t>
+          <t>넓이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>조용하</t>
+          <t>조용하(합성어/파생어)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>군것질</t>
+          <t>군것질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>선생님</t>
+          <t>선생님(합성어/파생어)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2240,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>먹히다</t>
+          <t>먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>거멓다</t>
+          <t>거멓다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>맨손</t>
+          <t>맨손(합성어/파생어)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>군소리</t>
+          <t>군소리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,12 +2328,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>시누이</t>
+          <t>시누이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2350,12 +2350,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>빗나가다</t>
+          <t>빗나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2372,12 +2372,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>새파랗다</t>
+          <t>새파랗다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>개살구</t>
+          <t>개살구(합성어/파생어)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>헛웃음</t>
+          <t>헛웃음(합성어/파생어)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2438,12 +2438,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>낚시질</t>
+          <t>낚시질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2460,12 +2460,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>지우개</t>
+          <t>지우개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2482,12 +2482,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>건어물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2504,12 +2504,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>손짓</t>
+          <t>손짓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>비지땀</t>
+          <t>비지땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>사랑채</t>
+          <t>사랑채(합성어/파생어)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2570,12 +2570,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>쌍동밤</t>
+          <t>쌍동밤(합성어/파생어)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2592,12 +2592,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>장작불</t>
+          <t>장작불(합성어/파생어)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2614,12 +2614,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>돌보다</t>
+          <t>돌보다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>강추위</t>
+          <t>강추위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2658,12 +2658,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>날강도</t>
+          <t>날강도(합성어/파생어)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2680,12 +2680,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>짓누르다</t>
+          <t>짓누르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2702,12 +2702,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>온갓</t>
+          <t>온갓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2724,12 +2724,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>게을러빠지다</t>
+          <t>게을러빠지다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>끝내</t>
+          <t>끝내(합성어/파생어)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>참꽃</t>
+          <t>참꽃(합성어/파생어)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2790,12 +2790,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>한겨울</t>
+          <t>한겨울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2812,12 +2812,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>들개</t>
+          <t>들개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>움직이다</t>
+          <t>움직이다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2856,12 +2856,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>한낮</t>
+          <t>한낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>어느덧</t>
+          <t>어느덧(합성어/파생어)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>들쑤시다</t>
+          <t>들쑤시다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2922,12 +2922,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>마음껏</t>
+          <t>마음껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2944,12 +2944,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>불호령</t>
+          <t>불호령(합성어/파생어)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2966,12 +2966,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>여남은</t>
+          <t>여남은(합성어/파생어)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2988,12 +2988,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>마중</t>
+          <t>마중(합성어/파생어)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>인간</t>
+          <t>인간(합성어/파생어)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3032,12 +3032,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>한국인</t>
+          <t>한국인(합성어/파생어)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3054,12 +3054,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>까막까치</t>
+          <t>까막까치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3143,12 +3143,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>명지바람</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>보드랍고 화창한 바람</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>하늬바람</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>서쪽에서 부는 바람</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3187,12 +3187,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>살바람</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3209,12 +3209,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>높새바람</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3849,7 +3849,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>회-수(回收)(발음)</t>
+          <t>회수(回收)(발음)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3871,7 +3871,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>콩-밥(발음)</t>
+          <t>콩밥(발음)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
